--- a/dimension_table.xlsx
+++ b/dimension_table.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fc5896a46ceb24cb/Documents/_School/TimeSeries/_Project/Traffic_Forecasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_49C5608906228E9855C7AF22FDC96D2ADD5AE223" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D3DFC5B-710D-4411-88A5-B8BE3BD6A853}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_49C5608906228E9855C7AF22FDC96D2ADD5AE223" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B2D3DDA-128A-425E-8563-D409C94A6C0B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-96" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$148</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="104">
   <si>
     <t>Latitude</t>
   </si>
@@ -654,15 +657,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F160"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" customWidth="1"/>
   </cols>
@@ -687,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -727,7 +730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -752,10 +755,10 @@
         <v>52</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D5">
         <v>45.47331724</v>
@@ -772,10 +775,10 @@
         <v>52</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <v>45.47331724</v>
@@ -787,7 +790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -807,7 +810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -827,7 +830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -867,9 +870,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -878,13 +881,13 @@
         <v>100</v>
       </c>
       <c r="D11">
-        <v>44.922800729999999</v>
+        <v>44.92014477</v>
       </c>
       <c r="E11">
-        <v>-123.01070350000001</v>
+        <v>-123.0038316</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -892,10 +895,10 @@
         <v>55</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D12">
         <v>44.92014477</v>
@@ -907,15 +910,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>55</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D13">
         <v>44.92014477</v>
@@ -932,10 +935,10 @@
         <v>55</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14">
         <v>44.92014477</v>
@@ -947,84 +950,84 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15">
-        <v>44.92014477</v>
+        <v>44.918284309999997</v>
       </c>
       <c r="E15">
-        <v>-123.0038316</v>
+        <v>-122.99757049999999</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16">
+        <v>44.918284309999997</v>
+      </c>
+      <c r="E16">
+        <v>-122.99757049999999</v>
+      </c>
+      <c r="F16" t="s">
         <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16">
-        <v>44.92014477</v>
-      </c>
-      <c r="E16">
-        <v>-123.0038316</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17">
+        <v>44.916325710000002</v>
+      </c>
+      <c r="E17">
+        <v>-122.9911961</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>103</v>
       </c>
-      <c r="D17">
-        <v>44.918284309999997</v>
-      </c>
-      <c r="E17">
-        <v>-122.99757049999999</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>102</v>
-      </c>
       <c r="D18">
-        <v>44.918284309999997</v>
+        <v>44.916325710000002</v>
       </c>
       <c r="E18">
-        <v>-122.99757049999999</v>
+        <v>-122.9911961</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1049,7 +1052,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1058,58 +1061,58 @@
         <v>102</v>
       </c>
       <c r="D20">
-        <v>44.916325710000002</v>
+        <v>44.914799840000001</v>
       </c>
       <c r="E20">
-        <v>-122.9911961</v>
+        <v>-122.986192</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21">
+        <v>44.914799840000001</v>
+      </c>
+      <c r="E21">
+        <v>-122.986192</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>103</v>
       </c>
-      <c r="D21">
-        <v>44.916325710000002</v>
-      </c>
-      <c r="E21">
-        <v>-122.9911961</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>102</v>
-      </c>
       <c r="D22">
-        <v>44.916325710000002</v>
+        <v>45.151030820000003</v>
       </c>
       <c r="E22">
-        <v>-122.9911961</v>
+        <v>-122.8863463</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1118,184 +1121,184 @@
         <v>102</v>
       </c>
       <c r="D23">
-        <v>44.914799840000001</v>
+        <v>45.151030820000003</v>
       </c>
       <c r="E23">
-        <v>-122.986192</v>
+        <v>-122.8863463</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>101</v>
       </c>
       <c r="D24">
-        <v>44.914799840000001</v>
+        <v>45.151030820000003</v>
       </c>
       <c r="E24">
-        <v>-122.986192</v>
+        <v>-122.8863463</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
         <v>103</v>
       </c>
       <c r="D25">
-        <v>45.151030820000003</v>
+        <v>45.142633170000003</v>
       </c>
       <c r="E25">
-        <v>-122.8863463</v>
+        <v>-122.8389105</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26">
-        <v>45.151030820000003</v>
+        <v>45.142633170000003</v>
       </c>
       <c r="E26">
-        <v>-122.8863463</v>
+        <v>-122.8389105</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D27">
-        <v>45.151030820000003</v>
+        <v>45.145286900000002</v>
       </c>
       <c r="E27">
-        <v>-122.8863463</v>
+        <v>-122.83650729999999</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D28">
-        <v>45.142633170000003</v>
+        <v>45.145286900000002</v>
       </c>
       <c r="E28">
-        <v>-122.8389105</v>
+        <v>-122.83650729999999</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D29">
-        <v>45.142633170000003</v>
+        <v>45.151294679999999</v>
       </c>
       <c r="E29">
-        <v>-122.8389105</v>
+        <v>-122.8312159</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D30">
-        <v>45.145286900000002</v>
+        <v>45.151294679999999</v>
       </c>
       <c r="E30">
-        <v>-122.83650729999999</v>
+        <v>-122.8312159</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D31">
-        <v>45.145286900000002</v>
+        <v>45.151294679999999</v>
       </c>
       <c r="E31">
-        <v>-122.83650729999999</v>
+        <v>-122.8312159</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32">
         <v>45.151294679999999</v>
@@ -1309,107 +1312,107 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33">
-        <v>45.151294679999999</v>
+        <v>45.151098730000001</v>
       </c>
       <c r="E33">
-        <v>-122.8312159</v>
+        <v>-122.8820657</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
         <v>103</v>
       </c>
       <c r="D34">
-        <v>45.151294679999999</v>
+        <v>45.151098730000001</v>
       </c>
       <c r="E34">
-        <v>-122.8312159</v>
+        <v>-122.8820657</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>101</v>
       </c>
       <c r="D35">
-        <v>45.151294679999999</v>
+        <v>45.151098730000001</v>
       </c>
       <c r="E35">
-        <v>-122.8312159</v>
+        <v>-122.8820657</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36">
+        <v>45.150977930000003</v>
+      </c>
+      <c r="E36">
+        <v>-122.8757044</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
         <v>100</v>
       </c>
-      <c r="D36">
-        <v>45.151294679999999</v>
-      </c>
-      <c r="E36">
-        <v>-122.8312159</v>
-      </c>
-      <c r="F36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>101</v>
-      </c>
       <c r="D37">
-        <v>45.151098730000001</v>
+        <v>45.150977930000003</v>
       </c>
       <c r="E37">
-        <v>-122.8820657</v>
+        <v>-122.8757044</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -1418,78 +1421,78 @@
         <v>102</v>
       </c>
       <c r="D38">
-        <v>45.151098730000001</v>
+        <v>45.150977930000003</v>
       </c>
       <c r="E38">
-        <v>-122.8820657</v>
+        <v>-122.8757044</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D39">
-        <v>45.151098730000001</v>
+        <v>45.150977930000003</v>
       </c>
       <c r="E39">
-        <v>-122.8820657</v>
+        <v>-122.8757044</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40">
-        <v>45.151098730000001</v>
+        <v>45.14945496</v>
       </c>
       <c r="E40">
-        <v>-122.8820657</v>
+        <v>-122.85962600000001</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D41">
-        <v>45.151098730000001</v>
+        <v>45.14945496</v>
       </c>
       <c r="E41">
-        <v>-122.8820657</v>
+        <v>-122.85962600000001</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -1498,58 +1501,58 @@
         <v>103</v>
       </c>
       <c r="D42">
-        <v>45.150977930000003</v>
+        <v>45.14945496</v>
       </c>
       <c r="E42">
-        <v>-122.8757044</v>
+        <v>-122.85962600000001</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D43">
-        <v>45.150977930000003</v>
+        <v>45.150938070000002</v>
       </c>
       <c r="E43">
-        <v>-122.8757044</v>
+        <v>-122.8733053</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D44">
-        <v>45.150977930000003</v>
+        <v>45.150938070000002</v>
       </c>
       <c r="E44">
-        <v>-122.8757044</v>
+        <v>-122.8733053</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -1558,238 +1561,238 @@
         <v>101</v>
       </c>
       <c r="D45">
-        <v>45.150977930000003</v>
+        <v>45.151412749999999</v>
       </c>
       <c r="E45">
-        <v>-122.8757044</v>
+        <v>-122.83585960000001</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D46">
-        <v>45.14945496</v>
+        <v>45.103279010000001</v>
       </c>
       <c r="E46">
-        <v>-122.85962600000001</v>
+        <v>-122.8913512</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
         <v>100</v>
       </c>
       <c r="D47">
-        <v>45.14945496</v>
+        <v>45.103279010000001</v>
       </c>
       <c r="E47">
-        <v>-122.85962600000001</v>
+        <v>-122.8913512</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D48">
-        <v>45.14945496</v>
+        <v>45.103279010000001</v>
       </c>
       <c r="E48">
-        <v>-122.85962600000001</v>
+        <v>-122.8913512</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D49">
-        <v>45.150938070000002</v>
+        <v>45.103279010000001</v>
       </c>
       <c r="E49">
-        <v>-122.8733053</v>
+        <v>-122.8913512</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D50">
-        <v>45.150938070000002</v>
+        <v>45.259562469999999</v>
       </c>
       <c r="E50">
-        <v>-122.8733053</v>
+        <v>-122.7694065</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
         <v>101</v>
       </c>
       <c r="D51">
-        <v>45.151412749999999</v>
+        <v>45.259562469999999</v>
       </c>
       <c r="E51">
-        <v>-122.83585960000001</v>
+        <v>-122.7694065</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52">
+        <v>45.259562469999999</v>
+      </c>
+      <c r="E52">
+        <v>-122.7694065</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53">
+        <v>45.259562469999999</v>
+      </c>
+      <c r="E53">
+        <v>-122.7694065</v>
+      </c>
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54">
         <v>4</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>102</v>
       </c>
-      <c r="D52">
-        <v>45.103279010000001</v>
-      </c>
-      <c r="E52">
-        <v>-122.8913512</v>
-      </c>
-      <c r="F52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53">
-        <v>45.103279010000001</v>
-      </c>
-      <c r="E53">
-        <v>-122.8913512</v>
-      </c>
-      <c r="F53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
-        <v>101</v>
-      </c>
       <c r="D54">
-        <v>45.103279010000001</v>
+        <v>45.23230684</v>
       </c>
       <c r="E54">
-        <v>-122.8913512</v>
+        <v>-122.75453589999999</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D55">
-        <v>45.103279010000001</v>
+        <v>45.23230684</v>
       </c>
       <c r="E55">
-        <v>-122.8913512</v>
+        <v>-122.75453589999999</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>103</v>
       </c>
       <c r="D56">
-        <v>45.259562469999999</v>
+        <v>45.23230684</v>
       </c>
       <c r="E56">
-        <v>-122.7694065</v>
+        <v>-122.75453589999999</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -1798,138 +1801,138 @@
         <v>101</v>
       </c>
       <c r="D57">
-        <v>45.259562469999999</v>
+        <v>44.864555160000002</v>
       </c>
       <c r="E57">
-        <v>-122.7694065</v>
+        <v>-123.22916600000001</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D58">
-        <v>45.259562469999999</v>
+        <v>44.864555160000002</v>
       </c>
       <c r="E58">
-        <v>-122.7694065</v>
+        <v>-123.22916600000001</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59">
+        <v>44.864555160000002</v>
+      </c>
+      <c r="E59">
+        <v>-123.22916600000001</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60">
         <v>8</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>102</v>
       </c>
-      <c r="D59">
-        <v>45.259562469999999</v>
-      </c>
-      <c r="E59">
-        <v>-122.7694065</v>
-      </c>
-      <c r="F59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60">
-        <v>4</v>
-      </c>
-      <c r="C60" t="s">
-        <v>101</v>
-      </c>
       <c r="D60">
-        <v>45.259562469999999</v>
+        <v>44.864555160000002</v>
       </c>
       <c r="E60">
-        <v>-122.7694065</v>
+        <v>-123.22916600000001</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D61">
-        <v>45.23230684</v>
+        <v>44.848504370000001</v>
       </c>
       <c r="E61">
-        <v>-122.75453589999999</v>
+        <v>-123.2293019</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>100</v>
       </c>
       <c r="D62">
-        <v>45.23230684</v>
+        <v>44.848504370000001</v>
       </c>
       <c r="E62">
-        <v>-122.75453589999999</v>
+        <v>-123.2293019</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D63">
-        <v>45.23230684</v>
+        <v>44.848504370000001</v>
       </c>
       <c r="E63">
-        <v>-122.75453589999999</v>
+        <v>-123.2293019</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -1938,198 +1941,198 @@
         <v>101</v>
       </c>
       <c r="D64">
-        <v>44.864555160000002</v>
+        <v>44.848504370000001</v>
       </c>
       <c r="E64">
-        <v>-123.22916600000001</v>
+        <v>-123.2293019</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D65">
-        <v>44.864555160000002</v>
+        <v>45.300294000000001</v>
       </c>
       <c r="E65">
-        <v>-123.22916600000001</v>
+        <v>-122.972824</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D66">
-        <v>44.864555160000002</v>
+        <v>45.300294000000001</v>
       </c>
       <c r="E66">
-        <v>-123.22916600000001</v>
+        <v>-122.972824</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D67">
-        <v>44.864555160000002</v>
+        <v>45.300294000000001</v>
       </c>
       <c r="E67">
-        <v>-123.22916600000001</v>
+        <v>-122.972824</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
         <v>6</v>
       </c>
       <c r="C68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68">
+        <v>45.301132989999999</v>
+      </c>
+      <c r="E68">
+        <v>-122.97281700000001</v>
+      </c>
+      <c r="F68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
         <v>100</v>
       </c>
-      <c r="D68">
-        <v>44.848504370000001</v>
-      </c>
-      <c r="E68">
-        <v>-123.2293019</v>
-      </c>
-      <c r="F68" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69">
-        <v>2</v>
-      </c>
-      <c r="C69" t="s">
-        <v>103</v>
-      </c>
       <c r="D69">
-        <v>44.848504370000001</v>
+        <v>45.301132989999999</v>
       </c>
       <c r="E69">
-        <v>-123.2293019</v>
+        <v>-122.97281700000001</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D70">
-        <v>44.848504370000001</v>
+        <v>45.30146689</v>
       </c>
       <c r="E70">
-        <v>-123.2293019</v>
+        <v>-122.96253249999999</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D71">
-        <v>44.848504370000001</v>
+        <v>45.30146689</v>
       </c>
       <c r="E71">
-        <v>-123.2293019</v>
+        <v>-122.96253249999999</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72">
+        <v>45.30146689</v>
+      </c>
+      <c r="E72">
+        <v>-122.96253249999999</v>
+      </c>
+      <c r="F72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73">
         <v>8</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>100</v>
       </c>
-      <c r="D72">
-        <v>45.300294000000001</v>
-      </c>
-      <c r="E72">
-        <v>-122.972824</v>
-      </c>
-      <c r="F72" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s">
-        <v>102</v>
-      </c>
       <c r="D73">
-        <v>45.300294000000001</v>
+        <v>45.306423180000003</v>
       </c>
       <c r="E73">
-        <v>-122.972824</v>
+        <v>-122.94692790000001</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -2138,298 +2141,298 @@
         <v>103</v>
       </c>
       <c r="D74">
-        <v>45.300294000000001</v>
+        <v>45.306423180000003</v>
       </c>
       <c r="E74">
-        <v>-122.972824</v>
+        <v>-122.94692790000001</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D75">
-        <v>45.301132989999999</v>
+        <v>45.306423180000003</v>
       </c>
       <c r="E75">
-        <v>-122.97281700000001</v>
+        <v>-122.94692790000001</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D76">
-        <v>45.301132989999999</v>
+        <v>45.306423180000003</v>
       </c>
       <c r="E76">
-        <v>-122.97281700000001</v>
+        <v>-122.94692790000001</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D77">
-        <v>45.30146689</v>
+        <v>45.200921370000003</v>
       </c>
       <c r="E77">
-        <v>-122.96253249999999</v>
+        <v>-123.1665878</v>
       </c>
       <c r="F77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D78">
-        <v>45.30146689</v>
+        <v>45.200921370000003</v>
       </c>
       <c r="E78">
-        <v>-122.96253249999999</v>
+        <v>-123.1665878</v>
       </c>
       <c r="F78" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D79">
-        <v>45.30146689</v>
+        <v>45.22319864</v>
       </c>
       <c r="E79">
-        <v>-122.96253249999999</v>
+        <v>-123.19458419999999</v>
       </c>
       <c r="F79" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D80">
-        <v>45.306423180000003</v>
+        <v>45.22319864</v>
       </c>
       <c r="E80">
-        <v>-122.94692790000001</v>
+        <v>-123.19458419999999</v>
       </c>
       <c r="F80" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81">
+        <v>45.22319864</v>
+      </c>
+      <c r="E81">
+        <v>-123.19458419999999</v>
+      </c>
+      <c r="F81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82">
         <v>4</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>103</v>
       </c>
-      <c r="D81">
-        <v>45.306423180000003</v>
-      </c>
-      <c r="E81">
-        <v>-122.94692790000001</v>
-      </c>
-      <c r="F81" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>76</v>
-      </c>
-      <c r="B82">
-        <v>6</v>
-      </c>
-      <c r="C82" t="s">
-        <v>101</v>
-      </c>
       <c r="D82">
-        <v>45.306423180000003</v>
+        <v>45.22319864</v>
       </c>
       <c r="E82">
-        <v>-122.94692790000001</v>
+        <v>-123.19458419999999</v>
       </c>
       <c r="F82" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B83">
         <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D83">
-        <v>45.306423180000003</v>
+        <v>45.196958090000003</v>
       </c>
       <c r="E83">
-        <v>-122.94692790000001</v>
+        <v>-123.20737200000001</v>
       </c>
       <c r="F83" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B84">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D84">
-        <v>45.306423180000003</v>
+        <v>45.196958090000003</v>
       </c>
       <c r="E84">
-        <v>-122.94692790000001</v>
+        <v>-123.20737200000001</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D85">
-        <v>45.306423180000003</v>
+        <v>45.307925470000001</v>
       </c>
       <c r="E85">
-        <v>-122.94692790000001</v>
+        <v>-122.9420511</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D86">
-        <v>45.200921370000003</v>
+        <v>45.307925470000001</v>
       </c>
       <c r="E86">
-        <v>-123.1665878</v>
+        <v>-122.9420511</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D87">
-        <v>45.200921370000003</v>
+        <v>45.229259159999998</v>
       </c>
       <c r="E87">
-        <v>-123.1665878</v>
+        <v>-123.170694</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B88">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D88">
-        <v>45.22319864</v>
+        <v>45.229259159999998</v>
       </c>
       <c r="E88">
-        <v>-123.19458419999999</v>
+        <v>-123.170694</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -2438,558 +2441,558 @@
         <v>101</v>
       </c>
       <c r="D89">
-        <v>45.22319864</v>
+        <v>45.229259159999998</v>
       </c>
       <c r="E89">
-        <v>-123.19458419999999</v>
+        <v>-123.170694</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D90">
-        <v>45.22319864</v>
+        <v>45.229259159999998</v>
       </c>
       <c r="E90">
-        <v>-123.19458419999999</v>
+        <v>-123.170694</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D91">
-        <v>45.22319864</v>
+        <v>45.210028440000002</v>
       </c>
       <c r="E91">
-        <v>-123.19458419999999</v>
+        <v>-123.1886524</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D92">
-        <v>45.196958090000003</v>
+        <v>45.210028440000002</v>
       </c>
       <c r="E92">
-        <v>-123.20737200000001</v>
+        <v>-123.1886524</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B93">
         <v>6</v>
       </c>
       <c r="C93" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93">
+        <v>45.210028440000002</v>
+      </c>
+      <c r="E93">
+        <v>-123.1886524</v>
+      </c>
+      <c r="F93" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
         <v>103</v>
       </c>
-      <c r="D93">
-        <v>45.196958090000003</v>
-      </c>
-      <c r="E93">
-        <v>-123.20737200000001</v>
-      </c>
-      <c r="F93" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>80</v>
-      </c>
-      <c r="B94">
-        <v>6</v>
-      </c>
-      <c r="C94" t="s">
-        <v>101</v>
-      </c>
       <c r="D94">
-        <v>45.307925470000001</v>
+        <v>45.210028440000002</v>
       </c>
       <c r="E94">
-        <v>-122.9420511</v>
+        <v>-123.1886524</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
       </c>
       <c r="D95">
-        <v>45.307925470000001</v>
+        <v>45.317407000000003</v>
       </c>
       <c r="E95">
-        <v>-122.9420511</v>
+        <v>-122.973382</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D96">
-        <v>45.229259159999998</v>
+        <v>45.317407000000003</v>
       </c>
       <c r="E96">
-        <v>-123.170694</v>
+        <v>-122.973382</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B97">
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D97">
-        <v>45.229259159999998</v>
+        <v>45.317407000000003</v>
       </c>
       <c r="E97">
-        <v>-123.170694</v>
+        <v>-122.973382</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>102</v>
       </c>
       <c r="D98">
-        <v>45.229259159999998</v>
+        <v>45.290236159999999</v>
       </c>
       <c r="E98">
-        <v>-123.170694</v>
+        <v>-122.9475752</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D99">
-        <v>45.229259159999998</v>
+        <v>45.290236159999999</v>
       </c>
       <c r="E99">
-        <v>-123.170694</v>
+        <v>-122.9475752</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>100</v>
       </c>
       <c r="D100">
-        <v>45.210028440000002</v>
+        <v>45.290236159999999</v>
       </c>
       <c r="E100">
-        <v>-123.1886524</v>
+        <v>-122.9475752</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101">
+        <v>44.64467982</v>
+      </c>
+      <c r="E101">
+        <v>-124.05303910000001</v>
+      </c>
+      <c r="F101" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>85</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
         <v>101</v>
       </c>
-      <c r="D101">
-        <v>45.210028440000002</v>
-      </c>
-      <c r="E101">
-        <v>-123.1886524</v>
-      </c>
-      <c r="F101" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>82</v>
-      </c>
-      <c r="B102">
-        <v>2</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="D102">
+        <v>44.64467982</v>
+      </c>
+      <c r="E102">
+        <v>-124.05303910000001</v>
+      </c>
+      <c r="F102" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>85</v>
+      </c>
+      <c r="B103">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
         <v>102</v>
       </c>
-      <c r="D102">
-        <v>45.210028440000002</v>
-      </c>
-      <c r="E102">
-        <v>-123.1886524</v>
-      </c>
-      <c r="F102" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>82</v>
-      </c>
-      <c r="B103">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
-        <v>103</v>
-      </c>
       <c r="D103">
-        <v>45.210028440000002</v>
+        <v>44.64467982</v>
       </c>
       <c r="E103">
-        <v>-123.1886524</v>
+        <v>-124.05303910000001</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B104">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D104">
-        <v>45.317407000000003</v>
+        <v>44.64467982</v>
       </c>
       <c r="E104">
-        <v>-122.973382</v>
+        <v>-124.05303910000001</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B105">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>100</v>
       </c>
       <c r="D105">
-        <v>45.317407000000003</v>
+        <v>44.550853269999998</v>
       </c>
       <c r="E105">
-        <v>-122.973382</v>
+        <v>-123.3120279</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D106">
-        <v>45.317407000000003</v>
+        <v>44.550853269999998</v>
       </c>
       <c r="E106">
-        <v>-122.973382</v>
+        <v>-123.3120279</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B107">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C107" t="s">
         <v>102</v>
       </c>
       <c r="D107">
-        <v>45.290236159999999</v>
+        <v>44.550853269999998</v>
       </c>
       <c r="E107">
-        <v>-122.9475752</v>
+        <v>-123.3120279</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D108">
-        <v>45.290236159999999</v>
+        <v>44.550853269999998</v>
       </c>
       <c r="E108">
-        <v>-122.9475752</v>
+        <v>-123.3120279</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B109">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D109">
-        <v>45.290236159999999</v>
+        <v>44.555769210000001</v>
       </c>
       <c r="E109">
-        <v>-122.9475752</v>
+        <v>-123.0600973</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B110">
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D110">
-        <v>45.290236159999999</v>
+        <v>44.555769210000001</v>
       </c>
       <c r="E110">
-        <v>-122.9475752</v>
+        <v>-123.0600973</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D111">
-        <v>44.64467982</v>
+        <v>44.555769210000001</v>
       </c>
       <c r="E111">
-        <v>-124.05303910000001</v>
+        <v>-123.0600973</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B112">
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D112">
-        <v>44.64467982</v>
+        <v>44.637428499999999</v>
       </c>
       <c r="E112">
-        <v>-124.05303910000001</v>
+        <v>-123.0733731</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B113">
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D113">
-        <v>44.64467982</v>
+        <v>44.637428499999999</v>
       </c>
       <c r="E113">
-        <v>-124.05303910000001</v>
+        <v>-123.0733731</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B114">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D114">
-        <v>44.64467982</v>
+        <v>44.637428499999999</v>
       </c>
       <c r="E114">
-        <v>-124.05303910000001</v>
+        <v>-123.0733731</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D115">
-        <v>44.550853269999998</v>
+        <v>44.637428499999999</v>
       </c>
       <c r="E115">
-        <v>-123.3120279</v>
+        <v>-123.0733731</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D116">
-        <v>44.550853269999998</v>
+        <v>44.630303900000001</v>
       </c>
       <c r="E116">
-        <v>-123.3120279</v>
+        <v>-123.0639326</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B117">
         <v>6</v>
@@ -2998,138 +3001,138 @@
         <v>101</v>
       </c>
       <c r="D117">
-        <v>44.550853269999998</v>
+        <v>44.630303900000001</v>
       </c>
       <c r="E117">
-        <v>-123.3120279</v>
+        <v>-123.0639326</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D118">
-        <v>44.550853269999998</v>
+        <v>44.630303900000001</v>
       </c>
       <c r="E118">
-        <v>-123.3120279</v>
+        <v>-123.0639326</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D119">
-        <v>44.555769210000001</v>
+        <v>44.630303900000001</v>
       </c>
       <c r="E119">
-        <v>-123.0600973</v>
+        <v>-123.0639326</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B120">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D120">
-        <v>44.555769210000001</v>
+        <v>44.554516239999998</v>
       </c>
       <c r="E120">
-        <v>-123.0600973</v>
+        <v>-123.1101039</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B121">
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D121">
-        <v>44.555769210000001</v>
+        <v>44.554516239999998</v>
       </c>
       <c r="E121">
-        <v>-123.0600973</v>
+        <v>-123.1101039</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D122">
-        <v>44.555769210000001</v>
+        <v>44.554516239999998</v>
       </c>
       <c r="E122">
-        <v>-123.0600973</v>
+        <v>-123.1101039</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D123">
-        <v>44.637428499999999</v>
+        <v>44.55562578</v>
       </c>
       <c r="E123">
-        <v>-123.0733731</v>
+        <v>-123.0490647</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B124">
         <v>8</v>
@@ -3138,158 +3141,158 @@
         <v>100</v>
       </c>
       <c r="D124">
-        <v>44.637428499999999</v>
+        <v>44.55562578</v>
       </c>
       <c r="E124">
-        <v>-123.0733731</v>
+        <v>-123.0490647</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
+        <v>101</v>
+      </c>
+      <c r="D125">
+        <v>44.55562578</v>
+      </c>
+      <c r="E125">
+        <v>-123.0490647</v>
+      </c>
+      <c r="F125" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>91</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>103</v>
+      </c>
+      <c r="D126">
+        <v>44.55562578</v>
+      </c>
+      <c r="E126">
+        <v>-123.0490647</v>
+      </c>
+      <c r="F126" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>92</v>
+      </c>
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
         <v>102</v>
       </c>
-      <c r="D125">
-        <v>44.637428499999999</v>
-      </c>
-      <c r="E125">
-        <v>-123.0733731</v>
-      </c>
-      <c r="F125" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>88</v>
-      </c>
-      <c r="B126">
-        <v>6</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="D127">
+        <v>44.219145150000003</v>
+      </c>
+      <c r="E127">
+        <v>-123.2046699</v>
+      </c>
+      <c r="F127" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>92</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128" t="s">
         <v>101</v>
       </c>
-      <c r="D126">
-        <v>44.637428499999999</v>
-      </c>
-      <c r="E126">
-        <v>-123.0733731</v>
-      </c>
-      <c r="F126" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>89</v>
-      </c>
-      <c r="B127">
-        <v>6</v>
-      </c>
-      <c r="C127" t="s">
-        <v>101</v>
-      </c>
-      <c r="D127">
-        <v>44.630303900000001</v>
-      </c>
-      <c r="E127">
-        <v>-123.0639326</v>
-      </c>
-      <c r="F127" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>89</v>
-      </c>
-      <c r="B128">
-        <v>2</v>
-      </c>
-      <c r="C128" t="s">
-        <v>102</v>
-      </c>
       <c r="D128">
-        <v>44.630303900000001</v>
+        <v>44.219145150000003</v>
       </c>
       <c r="E128">
-        <v>-123.0639326</v>
+        <v>-123.2046699</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B129">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D129">
-        <v>44.630303900000001</v>
+        <v>44.219145150000003</v>
       </c>
       <c r="E129">
-        <v>-123.0639326</v>
+        <v>-123.2046699</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B130">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>100</v>
+      </c>
+      <c r="D130">
+        <v>44.219145150000003</v>
+      </c>
+      <c r="E130">
+        <v>-123.2046699</v>
+      </c>
+      <c r="F130" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>93</v>
+      </c>
+      <c r="B131">
         <v>4</v>
-      </c>
-      <c r="C130" t="s">
-        <v>103</v>
-      </c>
-      <c r="D130">
-        <v>44.630303900000001</v>
-      </c>
-      <c r="E130">
-        <v>-123.0639326</v>
-      </c>
-      <c r="F130" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>89</v>
-      </c>
-      <c r="B131">
-        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>101</v>
       </c>
       <c r="D131">
-        <v>44.630303900000001</v>
+        <v>44.214986250000003</v>
       </c>
       <c r="E131">
-        <v>-123.0639326</v>
+        <v>-123.2044506</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -3298,18 +3301,18 @@
         <v>103</v>
       </c>
       <c r="D132">
-        <v>44.554516239999998</v>
+        <v>44.214986250000003</v>
       </c>
       <c r="E132">
-        <v>-123.1101039</v>
+        <v>-123.2044506</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B133">
         <v>8</v>
@@ -3318,18 +3321,18 @@
         <v>102</v>
       </c>
       <c r="D133">
-        <v>44.554516239999998</v>
+        <v>44.214986250000003</v>
       </c>
       <c r="E133">
-        <v>-123.1101039</v>
+        <v>-123.2044506</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B134">
         <v>6</v>
@@ -3338,238 +3341,238 @@
         <v>100</v>
       </c>
       <c r="D134">
-        <v>44.554516239999998</v>
+        <v>44.214986250000003</v>
       </c>
       <c r="E134">
-        <v>-123.1101039</v>
+        <v>-123.2044506</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D135">
-        <v>44.55562578</v>
+        <v>44.229793710000003</v>
       </c>
       <c r="E135">
-        <v>-123.0490647</v>
+        <v>-123.2046879</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B136">
         <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D136">
-        <v>44.55562578</v>
+        <v>44.229793710000003</v>
       </c>
       <c r="E136">
-        <v>-123.0490647</v>
+        <v>-123.2046879</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B137">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D137">
-        <v>44.55562578</v>
+        <v>44.229793710000003</v>
       </c>
       <c r="E137">
-        <v>-123.0490647</v>
+        <v>-123.2046879</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D138">
-        <v>44.55562578</v>
+        <v>44.229793710000003</v>
       </c>
       <c r="E138">
-        <v>-123.0490647</v>
+        <v>-123.2046879</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B139">
         <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D139">
-        <v>44.219145150000003</v>
+        <v>44.054309050000001</v>
       </c>
       <c r="E139">
-        <v>-123.2046699</v>
+        <v>-123.352053</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B140">
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D140">
-        <v>44.219145150000003</v>
+        <v>44.054309050000001</v>
       </c>
       <c r="E140">
-        <v>-123.2046699</v>
+        <v>-123.352053</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B141">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D141">
-        <v>44.219145150000003</v>
+        <v>44.054309050000001</v>
       </c>
       <c r="E141">
-        <v>-123.2046699</v>
+        <v>-123.352053</v>
       </c>
       <c r="F141" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D142">
-        <v>44.219145150000003</v>
+        <v>44.054309050000001</v>
       </c>
       <c r="E142">
-        <v>-123.2046699</v>
+        <v>-123.352053</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B143">
         <v>4</v>
       </c>
       <c r="C143" t="s">
+        <v>102</v>
+      </c>
+      <c r="D143">
+        <v>43.974605750000002</v>
+      </c>
+      <c r="E143">
+        <v>-124.1031246</v>
+      </c>
+      <c r="F143" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>96</v>
+      </c>
+      <c r="B144">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
         <v>101</v>
       </c>
-      <c r="D143">
-        <v>44.214986250000003</v>
-      </c>
-      <c r="E143">
-        <v>-123.2044506</v>
-      </c>
-      <c r="F143" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>93</v>
-      </c>
-      <c r="B144">
-        <v>2</v>
-      </c>
-      <c r="C144" t="s">
-        <v>103</v>
-      </c>
       <c r="D144">
-        <v>44.214986250000003</v>
+        <v>43.974605750000002</v>
       </c>
       <c r="E144">
-        <v>-123.2044506</v>
+        <v>-124.1031246</v>
       </c>
       <c r="F144" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D145">
-        <v>44.214986250000003</v>
+        <v>43.974605750000002</v>
       </c>
       <c r="E145">
-        <v>-123.2044506</v>
+        <v>-124.1031246</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B146">
         <v>6</v>
@@ -3578,296 +3581,68 @@
         <v>100</v>
       </c>
       <c r="D146">
-        <v>44.214986250000003</v>
+        <v>43.974605750000002</v>
       </c>
       <c r="E146">
-        <v>-123.2044506</v>
+        <v>-124.1031246</v>
       </c>
       <c r="F146" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B147">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>101</v>
       </c>
       <c r="D147">
-        <v>44.229793710000003</v>
+        <v>44.137093030000003</v>
       </c>
       <c r="E147">
-        <v>-123.2046879</v>
+        <v>-123.0506189</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B148">
         <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D148">
-        <v>44.229793710000003</v>
+        <v>44.137093030000003</v>
       </c>
       <c r="E148">
-        <v>-123.2046879</v>
+        <v>-123.0506189</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>94</v>
-      </c>
-      <c r="B149">
-        <v>6</v>
-      </c>
-      <c r="C149" t="s">
-        <v>100</v>
-      </c>
-      <c r="D149">
-        <v>44.229793710000003</v>
-      </c>
-      <c r="E149">
-        <v>-123.2046879</v>
-      </c>
-      <c r="F149" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>94</v>
-      </c>
-      <c r="B150">
-        <v>2</v>
-      </c>
-      <c r="C150" t="s">
-        <v>103</v>
-      </c>
-      <c r="D150">
-        <v>44.229793710000003</v>
-      </c>
-      <c r="E150">
-        <v>-123.2046879</v>
-      </c>
-      <c r="F150" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>95</v>
-      </c>
-      <c r="B151">
-        <v>8</v>
-      </c>
-      <c r="C151" t="s">
-        <v>100</v>
-      </c>
-      <c r="D151">
-        <v>44.054309050000001</v>
-      </c>
-      <c r="E151">
-        <v>-123.352053</v>
-      </c>
-      <c r="F151" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>95</v>
-      </c>
-      <c r="B152">
-        <v>4</v>
-      </c>
-      <c r="C152" t="s">
-        <v>103</v>
-      </c>
-      <c r="D152">
-        <v>44.054309050000001</v>
-      </c>
-      <c r="E152">
-        <v>-123.352053</v>
-      </c>
-      <c r="F152" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>95</v>
-      </c>
-      <c r="B153">
-        <v>6</v>
-      </c>
-      <c r="C153" t="s">
-        <v>101</v>
-      </c>
-      <c r="D153">
-        <v>44.054309050000001</v>
-      </c>
-      <c r="E153">
-        <v>-123.352053</v>
-      </c>
-      <c r="F153" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>95</v>
-      </c>
-      <c r="B154">
-        <v>2</v>
-      </c>
-      <c r="C154" t="s">
-        <v>102</v>
-      </c>
-      <c r="D154">
-        <v>44.054309050000001</v>
-      </c>
-      <c r="E154">
-        <v>-123.352053</v>
-      </c>
-      <c r="F154" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>96</v>
-      </c>
-      <c r="B155">
-        <v>4</v>
-      </c>
-      <c r="C155" t="s">
-        <v>102</v>
-      </c>
-      <c r="D155">
-        <v>43.974605750000002</v>
-      </c>
-      <c r="E155">
-        <v>-124.1031246</v>
-      </c>
-      <c r="F155" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>96</v>
-      </c>
-      <c r="B156">
-        <v>8</v>
-      </c>
-      <c r="C156" t="s">
-        <v>101</v>
-      </c>
-      <c r="D156">
-        <v>43.974605750000002</v>
-      </c>
-      <c r="E156">
-        <v>-124.1031246</v>
-      </c>
-      <c r="F156" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>96</v>
-      </c>
-      <c r="B157">
-        <v>6</v>
-      </c>
-      <c r="C157" t="s">
-        <v>100</v>
-      </c>
-      <c r="D157">
-        <v>43.974605750000002</v>
-      </c>
-      <c r="E157">
-        <v>-124.1031246</v>
-      </c>
-      <c r="F157" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>96</v>
-      </c>
-      <c r="B158">
-        <v>2</v>
-      </c>
-      <c r="C158" t="s">
-        <v>103</v>
-      </c>
-      <c r="D158">
-        <v>43.974605750000002</v>
-      </c>
-      <c r="E158">
-        <v>-124.1031246</v>
-      </c>
-      <c r="F158" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>97</v>
-      </c>
-      <c r="B159">
-        <v>6</v>
-      </c>
-      <c r="C159" t="s">
-        <v>101</v>
-      </c>
-      <c r="D159">
-        <v>44.137093030000003</v>
-      </c>
-      <c r="E159">
-        <v>-123.0506189</v>
-      </c>
-      <c r="F159" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>97</v>
-      </c>
-      <c r="B160">
-        <v>8</v>
-      </c>
-      <c r="C160" t="s">
-        <v>100</v>
-      </c>
-      <c r="D160">
-        <v>44.137093030000003</v>
-      </c>
-      <c r="E160">
-        <v>-123.0506189</v>
-      </c>
-      <c r="F160" t="s">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:F148" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2"/>
+        <filter val="6"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F147">
+      <sortCondition ref="A2:A148"/>
+      <sortCondition ref="B2:B148"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>